--- a/test plan McDonald.xlsx
+++ b/test plan McDonald.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C23Nicolette.McDonal\Documents\Code repo\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C23Nicolette.McDonal\Documents\Code repo\t1a---final-project---f20-Nikkirm15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
   <si>
     <t>Programmer</t>
   </si>
@@ -138,9 +138,6 @@
     <t>check4end</t>
   </si>
   <si>
-    <t>endGame</t>
-  </si>
-  <si>
     <t>Turn</t>
   </si>
   <si>
@@ -228,21 +225,9 @@
     <t># greater than to word length</t>
   </si>
   <si>
-    <t xml:space="preserve">boundary for win </t>
-  </si>
-  <si>
-    <t>victory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">game over! </t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
-    <t>boundary for loss</t>
-  </si>
-  <si>
     <t>c3c McDonald</t>
   </si>
   <si>
@@ -319,6 +304,21 @@
   </si>
   <si>
     <t>printHangman</t>
+  </si>
+  <si>
+    <t>count_char</t>
+  </si>
+  <si>
+    <t>count number of times charactr is in word</t>
+  </si>
+  <si>
+    <t>word, letter in word once</t>
+  </si>
+  <si>
+    <t>word, letter in word 3x</t>
+  </si>
+  <si>
+    <t>word, letter not in word</t>
   </si>
 </sst>
 </file>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="8" customHeight="1" x14ac:dyDescent="0.35">
@@ -894,7 +894,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -985,13 +985,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1005,13 +1005,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1025,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1180,13 +1180,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1200,13 +1200,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10">
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1220,13 +1220,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1338,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1375,13 +1375,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1395,13 +1395,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1415,13 +1415,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1455,13 +1455,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1475,13 +1475,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1495,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1512,13 +1512,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1529,13 +1529,13 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1546,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1563,13 +1563,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1580,13 +1580,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1597,13 +1597,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1614,13 +1614,13 @@
         <v>23</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1631,13 +1631,13 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1648,13 +1648,13 @@
         <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1765,13 +1765,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1785,13 +1785,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1805,13 +1805,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1881,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1960,13 +1960,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1980,13 +1980,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10">
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2000,13 +2000,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2020,13 +2020,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -2040,13 +2040,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2060,13 +2060,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -2101,7 +2101,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2179,13 +2179,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2199,13 +2199,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2219,74 +2219,43 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>6</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -2316,6 +2285,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002150F9E13E4DB341AD798B7DFE367926" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffe91cbb4e68c4abb4e47e3d78bb5f02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f7f3735-0479-41e9-b500-9d501c7e9a5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="befe96f90c8dcade259f1f16133e1e18" ns2:_="">
     <xsd:import namespace="2f7f3735-0479-41e9-b500-9d501c7e9a5a"/>
@@ -2493,22 +2477,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D42AA3-9A1B-4D66-AEDE-599F62C4AB86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2f7f3735-0479-41e9-b500-9d501c7e9a5a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA5FE3D-97A6-42F7-96E7-EF061F0F9558}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D4A326-75E8-4D81-9852-4F42C1DF4793}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2524,28 +2517,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA5FE3D-97A6-42F7-96E7-EF061F0F9558}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D42AA3-9A1B-4D66-AEDE-599F62C4AB86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2f7f3735-0479-41e9-b500-9d501c7e9a5a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>